--- a/uva/uva題單.xlsx
+++ b/uva/uva題單.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zg451\Desktop\leetcode\uva\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73FA92D0-E605-4E96-A5BE-1DC1D3249E7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C3C30E9-D54C-4A66-805C-7FDC191AAC26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1812" yWindow="1812" windowWidth="17280" windowHeight="8880" xr2:uid="{98714EEE-3BFC-47FB-9BBF-29B8ADCD2C90}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{98714EEE-3BFC-47FB-9BBF-29B8ADCD2C90}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="101">
   <si>
     <t>The 3n+1 problem</t>
   </si>
@@ -802,8 +802,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40553748-E580-481D-A4A9-3D7BF8935A4A}">
   <dimension ref="A1:G78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="B56" sqref="B56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -1035,6 +1035,9 @@
       <c r="F12" s="4">
         <v>37533</v>
       </c>
+      <c r="G12" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row r="13" spans="1:7" ht="48.6" x14ac:dyDescent="0.3">
       <c r="A13" s="5">
@@ -1670,7 +1673,7 @@
         <v>40819</v>
       </c>
     </row>
-    <row r="49" spans="1:6" ht="64.8" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:7" ht="64.8" x14ac:dyDescent="0.3">
       <c r="A49" s="5">
         <v>11398</v>
       </c>
@@ -1688,7 +1691,7 @@
         <v>41037</v>
       </c>
     </row>
-    <row r="50" spans="1:6" ht="48.6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:7" ht="48.6" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
         <v>11479</v>
       </c>
@@ -1706,7 +1709,7 @@
         <v>40823</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A51" s="5">
         <v>11494</v>
       </c>
@@ -1722,7 +1725,7 @@
         <v>40857</v>
       </c>
     </row>
-    <row r="52" spans="1:6" ht="48.6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:7" ht="48.6" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
         <v>11498</v>
       </c>
@@ -1740,7 +1743,7 @@
         <v>40910</v>
       </c>
     </row>
-    <row r="53" spans="1:6" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:7" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A53" s="5">
         <v>11541</v>
       </c>
@@ -1760,7 +1763,7 @@
         <v>40917</v>
       </c>
     </row>
-    <row r="54" spans="1:6" ht="62.4" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:7" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
         <v>11577</v>
       </c>
@@ -1780,7 +1783,7 @@
         <v>40917</v>
       </c>
     </row>
-    <row r="55" spans="1:6" ht="32.4" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:7" ht="32.4" x14ac:dyDescent="0.3">
       <c r="A55" s="5">
         <v>11661</v>
       </c>
@@ -1796,7 +1799,7 @@
         <v>40475</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
         <v>11687</v>
       </c>
@@ -1812,7 +1815,7 @@
         <v>40864</v>
       </c>
     </row>
-    <row r="57" spans="1:6" ht="32.4" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:7" ht="32.4" x14ac:dyDescent="0.3">
       <c r="A57" s="5">
         <v>11689</v>
       </c>
@@ -1828,7 +1831,7 @@
         <v>40475</v>
       </c>
     </row>
-    <row r="58" spans="1:6" ht="32.4" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:7" ht="32.4" x14ac:dyDescent="0.3">
       <c r="A58" s="1">
         <v>11743</v>
       </c>
@@ -1846,7 +1849,7 @@
         <v>40911</v>
       </c>
     </row>
-    <row r="59" spans="1:6" ht="32.4" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:7" ht="32.4" x14ac:dyDescent="0.3">
       <c r="A59" s="5">
         <v>11764</v>
       </c>
@@ -1864,7 +1867,7 @@
         <v>41194</v>
       </c>
     </row>
-    <row r="60" spans="1:6" ht="32.4" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:7" ht="32.4" x14ac:dyDescent="0.3">
       <c r="A60" s="1">
         <v>11875</v>
       </c>
@@ -1882,7 +1885,7 @@
         <v>40910</v>
       </c>
     </row>
-    <row r="61" spans="1:6" ht="32.4" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:7" ht="32.4" x14ac:dyDescent="0.3">
       <c r="A61" s="5">
         <v>11879</v>
       </c>
@@ -1899,8 +1902,11 @@
       <c r="F61" s="8">
         <v>40904</v>
       </c>
-    </row>
-    <row r="62" spans="1:6" ht="48.6" x14ac:dyDescent="0.3">
+      <c r="G61" s="11" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" ht="48.6" x14ac:dyDescent="0.3">
       <c r="A62" s="1">
         <v>11936</v>
       </c>
@@ -1918,7 +1924,7 @@
         <v>40903</v>
       </c>
     </row>
-    <row r="63" spans="1:6" ht="64.8" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:7" ht="64.8" x14ac:dyDescent="0.3">
       <c r="A63" s="5">
         <v>11942</v>
       </c>
@@ -1936,7 +1942,7 @@
         <v>40899</v>
       </c>
     </row>
-    <row r="64" spans="1:6" ht="81" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:7" ht="81" x14ac:dyDescent="0.3">
       <c r="A64" s="1">
         <v>11984</v>
       </c>
@@ -1954,7 +1960,7 @@
         <v>40904</v>
       </c>
     </row>
-    <row r="65" spans="1:6" ht="64.8" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:7" ht="64.8" x14ac:dyDescent="0.3">
       <c r="A65" s="5">
         <v>12019</v>
       </c>
@@ -1971,8 +1977,11 @@
       <c r="F65" s="8">
         <v>40910</v>
       </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G65" s="11" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A66" s="1">
         <v>12149</v>
       </c>
@@ -1990,7 +1999,7 @@
         <v>40866</v>
       </c>
     </row>
-    <row r="67" spans="1:6" ht="48.6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:7" ht="48.6" x14ac:dyDescent="0.3">
       <c r="A67" s="5">
         <v>12195</v>
       </c>
@@ -2008,7 +2017,7 @@
         <v>41562</v>
       </c>
     </row>
-    <row r="68" spans="1:6" ht="48.6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:7" ht="48.6" x14ac:dyDescent="0.3">
       <c r="A68" s="1">
         <v>12289</v>
       </c>
@@ -2026,7 +2035,7 @@
         <v>41037</v>
       </c>
     </row>
-    <row r="69" spans="1:6" ht="32.4" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:7" ht="32.4" x14ac:dyDescent="0.3">
       <c r="A69" s="5">
         <v>12405</v>
       </c>
@@ -2046,7 +2055,7 @@
         <v>41037</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A70" s="1">
         <v>12439</v>
       </c>
@@ -2064,7 +2073,7 @@
         <v>41037</v>
       </c>
     </row>
-    <row r="71" spans="1:6" ht="32.4" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:7" ht="32.4" x14ac:dyDescent="0.3">
       <c r="A71" s="5">
         <v>12459</v>
       </c>
@@ -2082,7 +2091,7 @@
         <v>41177</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A72" s="1">
         <v>12468</v>
       </c>
@@ -2100,7 +2109,7 @@
         <v>41177</v>
       </c>
     </row>
-    <row r="73" spans="1:6" ht="48.6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:7" ht="48.6" x14ac:dyDescent="0.3">
       <c r="A73" s="5">
         <v>12602</v>
       </c>
@@ -2116,7 +2125,7 @@
         <v>41569</v>
       </c>
     </row>
-    <row r="74" spans="1:6" ht="32.4" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:7" ht="32.4" x14ac:dyDescent="0.3">
       <c r="A74" s="1">
         <v>12650</v>
       </c>
@@ -2134,7 +2143,7 @@
         <v>41635</v>
       </c>
     </row>
-    <row r="75" spans="1:6" ht="48.6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:7" ht="48.6" x14ac:dyDescent="0.3">
       <c r="A75" s="5">
         <v>13178</v>
       </c>
@@ -2152,7 +2161,7 @@
         <v>43034</v>
       </c>
     </row>
-    <row r="76" spans="1:6" ht="32.4" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:7" ht="32.4" x14ac:dyDescent="0.3">
       <c r="A76" s="1">
         <v>13185</v>
       </c>
@@ -2170,7 +2179,7 @@
         <v>42887</v>
       </c>
     </row>
-    <row r="77" spans="1:6" ht="48.6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:7" ht="48.6" x14ac:dyDescent="0.3">
       <c r="A77" s="5">
         <v>13187</v>
       </c>
@@ -2188,7 +2197,7 @@
         <v>42905</v>
       </c>
     </row>
-    <row r="78" spans="1:6" ht="97.2" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:7" ht="97.2" x14ac:dyDescent="0.3">
       <c r="A78" s="1">
         <v>13216</v>
       </c>

--- a/uva/uva題單.xlsx
+++ b/uva/uva題單.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zg451\Desktop\leetcode\uva\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C3C30E9-D54C-4A66-805C-7FDC191AAC26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40D19F79-FF5F-4678-A70B-15B697415D6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{98714EEE-3BFC-47FB-9BBF-29B8ADCD2C90}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="101">
   <si>
     <t>The 3n+1 problem</t>
   </si>
@@ -802,8 +802,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40553748-E580-481D-A4A9-3D7BF8935A4A}">
   <dimension ref="A1:G78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="B56" sqref="B56"/>
+    <sheetView tabSelected="1" topLeftCell="A53" workbookViewId="0">
+      <selection activeCell="G58" sqref="G58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -1762,6 +1762,9 @@
       <c r="F53" s="8">
         <v>40917</v>
       </c>
+      <c r="G53" s="11" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row r="54" spans="1:7" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
@@ -1847,6 +1850,9 @@
       </c>
       <c r="F58" s="4">
         <v>40911</v>
+      </c>
+      <c r="G58" s="12" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="59" spans="1:7" ht="32.4" x14ac:dyDescent="0.3">
